--- a/out/test/Figori_algorithm_25.xlsx
+++ b/out/test/Figori_algorithm_25.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.52480000000000004</v>
+        <v>0.51770000000000005</v>
       </c>
       <c r="B1">
-        <v>0.73019999999999996</v>
+        <v>0.57284999999999997</v>
       </c>
       <c r="C1">
-        <v>0.57565</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="D1">
-        <v>0.72814999999999996</v>
+        <v>0.51964999999999995</v>
       </c>
       <c r="E1">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="F1">
+        <v>0.72665000000000002</v>
+      </c>
+      <c r="G1">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H1">
+        <v>0.57074999999999998</v>
+      </c>
+      <c r="I1">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="J1">
         <v>0.73204999999999998</v>
       </c>
-      <c r="F1">
-        <v>0.72709999999999997</v>
-      </c>
-      <c r="G1">
-        <v>0.58525000000000005</v>
-      </c>
-      <c r="H1">
-        <v>0.52154999999999996</v>
-      </c>
-      <c r="I1">
-        <v>0.53405000000000002</v>
-      </c>
-      <c r="J1">
-        <v>0.72914999999999996</v>
-      </c>
       <c r="K1">
-        <v>0.57245000000000001</v>
+        <v>0.5917</v>
       </c>
       <c r="L1">
-        <v>0.72150000000000003</v>
+        <v>0.73470000000000002</v>
       </c>
       <c r="M1">
-        <v>0.74234999999999995</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="N1">
-        <v>0.58155000000000001</v>
+        <v>0.75619999999999998</v>
       </c>
       <c r="O1">
-        <v>0.51239999999999997</v>
+        <v>0.73385</v>
       </c>
       <c r="P1">
-        <v>0.73865000000000003</v>
+        <v>0.72745000000000004</v>
       </c>
       <c r="Q1">
-        <v>0.52049999999999996</v>
+        <v>0.72585</v>
       </c>
       <c r="R1">
-        <v>0.72599999999999998</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="S1">
-        <v>0.5696</v>
+        <v>0.52090000000000003</v>
       </c>
       <c r="T1">
-        <v>0.75880000000000003</v>
+        <v>0.75929999999999997</v>
       </c>
       <c r="U1">
-        <v>0.73375000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="V1">
-        <v>0.74014999999999997</v>
+        <v>0.72409999999999997</v>
       </c>
       <c r="W1">
-        <v>0.75660000000000005</v>
+        <v>0.52959999999999996</v>
       </c>
       <c r="X1">
-        <v>0.72614999999999996</v>
+        <v>0.51739999999999997</v>
       </c>
       <c r="Y1">
-        <v>0.51815</v>
+        <v>0.58650000000000002</v>
       </c>
       <c r="Z1">
-        <v>0.75139999999999996</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="AA1">
-        <v>0.72635000000000005</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="AB1">
-        <v>0.51885000000000003</v>
+        <v>0.72719999999999996</v>
       </c>
       <c r="AC1">
-        <v>0.52410000000000001</v>
+        <v>0.53334999999999999</v>
       </c>
       <c r="AD1">
-        <v>0.73109999999999997</v>
+        <v>0.74504999999999999</v>
       </c>
       <c r="AE1">
-        <v>0.52315</v>
+        <v>0.73209999999999997</v>
       </c>
       <c r="AF1">
-        <v>0.57015000000000005</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="AG1">
-        <v>0.73080000000000001</v>
+        <v>0.72994999999999999</v>
       </c>
       <c r="AH1">
-        <v>0.72850000000000004</v>
+        <v>0.52270000000000005</v>
       </c>
       <c r="AI1">
-        <v>0.72950000000000004</v>
+        <v>0.58645000000000003</v>
       </c>
       <c r="AJ1">
-        <v>0.53134999999999999</v>
+        <v>0.72794999999999999</v>
       </c>
       <c r="AK1">
-        <v>0.72670000000000001</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="AL1">
-        <v>0.76019999999999999</v>
+        <v>0.73709999999999998</v>
       </c>
       <c r="AM1">
-        <v>0.73340000000000005</v>
+        <v>0.74950000000000006</v>
       </c>
       <c r="AN1">
-        <v>0.72114999999999996</v>
+        <v>0.71775</v>
       </c>
       <c r="AO1">
-        <v>0.73170000000000002</v>
+        <v>0.57635000000000003</v>
       </c>
       <c r="AP1">
-        <v>0.72489999999999999</v>
+        <v>0.71919999999999995</v>
       </c>
       <c r="AQ1">
-        <v>0.75900000000000001</v>
+        <v>0.53354999999999997</v>
       </c>
       <c r="AR1">
-        <v>0.73450000000000004</v>
+        <v>0.72694999999999999</v>
       </c>
       <c r="AS1">
-        <v>0.75009999999999999</v>
+        <v>0.74639999999999995</v>
       </c>
       <c r="AT1">
-        <v>0.72640000000000005</v>
+        <v>0.51429999999999998</v>
       </c>
       <c r="AU1">
-        <v>0.73009999999999997</v>
+        <v>0.59060000000000001</v>
       </c>
       <c r="AV1">
-        <v>0.57320000000000004</v>
+        <v>0.72235000000000005</v>
       </c>
       <c r="AW1">
-        <v>0.76459999999999995</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="AX1">
-        <v>0.52154999999999996</v>
+        <v>0.51865000000000006</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.54925000000000002</v>
+        <v>0.45395000000000002</v>
       </c>
       <c r="B2">
-        <v>0.70774999999999999</v>
+        <v>0.54784999999999995</v>
       </c>
       <c r="C2">
-        <v>0.4884</v>
+        <v>0.50065000000000004</v>
       </c>
       <c r="D2">
-        <v>0.68464999999999998</v>
+        <v>0.75439999999999996</v>
       </c>
       <c r="E2">
-        <v>0.77380000000000004</v>
+        <v>0.69864999999999999</v>
       </c>
       <c r="F2">
-        <v>0.70499999999999996</v>
+        <v>0.68149999999999999</v>
       </c>
       <c r="G2">
-        <v>0.50170000000000003</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="H2">
-        <v>0.56594999999999995</v>
+        <v>0.50870000000000004</v>
       </c>
       <c r="I2">
-        <v>0.59775</v>
+        <v>0.65605000000000002</v>
       </c>
       <c r="J2">
-        <v>0.69</v>
+        <v>0.81225000000000003</v>
       </c>
       <c r="K2">
-        <v>0.58160000000000001</v>
+        <v>0.80945</v>
       </c>
       <c r="L2">
-        <v>0.74624999999999997</v>
+        <v>0.72994999999999999</v>
       </c>
       <c r="M2">
-        <v>0.76959999999999995</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="N2">
-        <v>0.56515000000000004</v>
+        <v>0.71960000000000002</v>
       </c>
       <c r="O2">
-        <v>0.58355000000000001</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="P2">
-        <v>0.70660000000000001</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="Q2">
-        <v>0.46425</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="R2">
-        <v>0.75744999999999996</v>
+        <v>0.45274999999999999</v>
       </c>
       <c r="S2">
-        <v>0.49595</v>
+        <v>0.51180000000000003</v>
       </c>
       <c r="T2">
-        <v>0.79559999999999997</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="U2">
-        <v>0.76339999999999997</v>
+        <v>0.78810000000000002</v>
       </c>
       <c r="V2">
-        <v>0.78995000000000004</v>
+        <v>0.65725</v>
       </c>
       <c r="W2">
-        <v>0.73570000000000002</v>
+        <v>0.50629999999999997</v>
       </c>
       <c r="X2">
-        <v>0.73109999999999997</v>
+        <v>0.41055000000000003</v>
       </c>
       <c r="Y2">
-        <v>0.48454999999999998</v>
+        <v>0.63995000000000002</v>
       </c>
       <c r="Z2">
-        <v>0.69645000000000001</v>
+        <v>0.68530000000000002</v>
       </c>
       <c r="AA2">
-        <v>0.64715</v>
+        <v>0.5171</v>
       </c>
       <c r="AB2">
-        <v>0.49540000000000001</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="AC2">
-        <v>0.49869999999999998</v>
+        <v>0.66979999999999995</v>
       </c>
       <c r="AD2">
+        <v>0.68869999999999998</v>
+      </c>
+      <c r="AE2">
+        <v>0.67064999999999997</v>
+      </c>
+      <c r="AF2">
+        <v>0.57925000000000004</v>
+      </c>
+      <c r="AG2">
+        <v>0.74295</v>
+      </c>
+      <c r="AH2">
+        <v>0.53985000000000005</v>
+      </c>
+      <c r="AI2">
+        <v>0.53974999999999995</v>
+      </c>
+      <c r="AJ2">
         <v>0.67284999999999995</v>
       </c>
-      <c r="AE2">
-        <v>0.49325000000000002</v>
-      </c>
-      <c r="AF2">
-        <v>0.81305000000000005</v>
-      </c>
-      <c r="AG2">
-        <v>0.7097</v>
-      </c>
-      <c r="AH2">
-        <v>0.84209999999999996</v>
-      </c>
-      <c r="AI2">
-        <v>0.69930000000000003</v>
-      </c>
-      <c r="AJ2">
-        <v>0.53520000000000001</v>
-      </c>
       <c r="AK2">
-        <v>0.74260000000000004</v>
+        <v>0.62819999999999998</v>
       </c>
       <c r="AL2">
-        <v>0.84550000000000003</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="AM2">
-        <v>0.66815000000000002</v>
+        <v>0.77280000000000004</v>
       </c>
       <c r="AN2">
-        <v>0.78259999999999996</v>
+        <v>0.63085000000000002</v>
       </c>
       <c r="AO2">
-        <v>0.66085000000000005</v>
+        <v>0.52</v>
       </c>
       <c r="AP2">
-        <v>0.56655</v>
+        <v>0.63544999999999996</v>
       </c>
       <c r="AQ2">
-        <v>0.72770000000000001</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="AR2">
-        <v>0.80484999999999995</v>
+        <v>0.84409999999999996</v>
       </c>
       <c r="AS2">
-        <v>0.73329999999999995</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="AT2">
-        <v>0.69255</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="AU2">
-        <v>0.61140000000000005</v>
+        <v>0.55820000000000003</v>
       </c>
       <c r="AV2">
-        <v>0.48209999999999997</v>
+        <v>0.83794999999999997</v>
       </c>
       <c r="AW2">
-        <v>0.77029999999999998</v>
+        <v>0.57984999999999998</v>
       </c>
       <c r="AX2">
-        <v>0.57289999999999996</v>
+        <v>0.49295</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.61150000000000004</v>
+        <v>0.4955</v>
       </c>
       <c r="B3">
-        <v>0.69230000000000003</v>
+        <v>0.63595000000000002</v>
       </c>
       <c r="C3">
-        <v>0.46925</v>
+        <v>0.49404999999999999</v>
       </c>
       <c r="D3">
-        <v>0.72319999999999995</v>
+        <v>0.73194999999999999</v>
       </c>
       <c r="E3">
-        <v>0.8417</v>
+        <v>0.70874999999999999</v>
       </c>
       <c r="F3">
-        <v>0.61770000000000003</v>
+        <v>0.71345000000000003</v>
       </c>
       <c r="G3">
-        <v>0.40275</v>
+        <v>0.85940000000000005</v>
       </c>
       <c r="H3">
-        <v>0.45650000000000002</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="I3">
-        <v>0.74139999999999995</v>
+        <v>0.5232</v>
       </c>
       <c r="J3">
-        <v>0.76944999999999997</v>
+        <v>0.69079999999999997</v>
       </c>
       <c r="K3">
-        <v>0.72345000000000004</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="L3">
-        <v>0.65495000000000003</v>
+        <v>0.68310000000000004</v>
       </c>
       <c r="M3">
-        <v>0.73280000000000001</v>
+        <v>0.66979999999999995</v>
       </c>
       <c r="N3">
-        <v>0.52715000000000001</v>
+        <v>0.70509999999999995</v>
       </c>
       <c r="O3">
-        <v>0.58040000000000003</v>
+        <v>0.70925000000000005</v>
       </c>
       <c r="P3">
-        <v>0.75224999999999997</v>
+        <v>0.68620000000000003</v>
       </c>
       <c r="Q3">
-        <v>0.7016</v>
+        <v>0.68994999999999995</v>
       </c>
       <c r="R3">
-        <v>0.72470000000000001</v>
+        <v>0.42180000000000001</v>
       </c>
       <c r="S3">
-        <v>0.52629999999999999</v>
+        <v>0.42225000000000001</v>
       </c>
       <c r="T3">
-        <v>0.73070000000000002</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="U3">
-        <v>0.75990000000000002</v>
+        <v>0.6139</v>
       </c>
       <c r="V3">
-        <v>0.95204999999999995</v>
+        <v>0.55189999999999995</v>
       </c>
       <c r="W3">
-        <v>0.97699999999999998</v>
+        <v>0.65375000000000005</v>
       </c>
       <c r="X3">
-        <v>0.79759999999999998</v>
+        <v>0.3105</v>
       </c>
       <c r="Y3">
-        <v>0.28094999999999998</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="Z3">
-        <v>0.68289999999999995</v>
+        <v>0.72370000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.56355</v>
+        <v>0.82130000000000003</v>
       </c>
       <c r="AB3">
-        <v>0.54490000000000005</v>
+        <v>0.51665000000000005</v>
       </c>
       <c r="AC3">
-        <v>0.59970000000000001</v>
+        <v>0.58484999999999998</v>
       </c>
       <c r="AD3">
-        <v>0.50465000000000004</v>
+        <v>0.57969999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.69540000000000002</v>
+        <v>0.47144999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.78800000000000003</v>
+        <v>0.47675000000000001</v>
       </c>
       <c r="AG3">
-        <v>0.69325000000000003</v>
+        <v>0.57704999999999995</v>
       </c>
       <c r="AH3">
-        <v>0.78400000000000003</v>
+        <v>0.47110000000000002</v>
       </c>
       <c r="AI3">
-        <v>0.72230000000000005</v>
+        <v>0.54759999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.59430000000000005</v>
+        <v>0.56979999999999997</v>
       </c>
       <c r="AK3">
-        <v>0.77149999999999996</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="AL3">
-        <v>0.95009999999999994</v>
+        <v>0.71619999999999995</v>
       </c>
       <c r="AM3">
-        <v>0.81950000000000001</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="AN3">
-        <v>0.6522</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="AO3">
-        <v>0.51819999999999999</v>
+        <v>0.55405000000000004</v>
       </c>
       <c r="AP3">
-        <v>0.54854999999999998</v>
+        <v>0.71094999999999997</v>
       </c>
       <c r="AQ3">
-        <v>0.76295000000000002</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="AR3">
-        <v>0.89339999999999997</v>
+        <v>0.49809999999999999</v>
       </c>
       <c r="AS3">
-        <v>0.75690000000000002</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="AT3">
-        <v>0.59225000000000005</v>
+        <v>0.75849999999999995</v>
       </c>
       <c r="AU3">
-        <v>0.63300000000000001</v>
+        <v>0.79569999999999996</v>
       </c>
       <c r="AV3">
-        <v>0.41839999999999999</v>
+        <v>0.84404999999999997</v>
       </c>
       <c r="AW3">
-        <v>0.72265000000000001</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="AX3">
-        <v>0.29165000000000002</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.83409999999999995</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="B4">
-        <v>0.58579999999999999</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="C4">
-        <v>0.37095</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D4">
-        <v>0.49909999999999999</v>
+        <v>0.6915</v>
       </c>
       <c r="E4">
-        <v>0.84130000000000005</v>
+        <v>0.71189999999999998</v>
       </c>
       <c r="F4">
-        <v>0.61914999999999998</v>
+        <v>0.60660000000000003</v>
       </c>
       <c r="G4">
-        <v>0.4597</v>
+        <v>0.82920000000000005</v>
       </c>
       <c r="H4">
-        <v>0.22020000000000001</v>
+        <v>0.87665000000000004</v>
       </c>
       <c r="I4">
-        <v>0.58235000000000003</v>
+        <v>0.45455000000000001</v>
       </c>
       <c r="J4">
-        <v>0.80910000000000004</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="K4">
-        <v>0.87660000000000005</v>
+        <v>0.92164999999999997</v>
       </c>
       <c r="L4">
-        <v>0.63090000000000002</v>
+        <v>0.57640000000000002</v>
       </c>
       <c r="M4">
-        <v>0.85650000000000004</v>
+        <v>0.39810000000000001</v>
       </c>
       <c r="N4">
-        <v>0.44900000000000001</v>
+        <v>0.65759999999999996</v>
       </c>
       <c r="O4">
-        <v>0.65185000000000004</v>
+        <v>0.58109999999999995</v>
       </c>
       <c r="P4">
-        <v>0.64195000000000002</v>
+        <v>0.45534999999999998</v>
       </c>
       <c r="Q4">
-        <v>0.74160000000000004</v>
+        <v>0.61970000000000003</v>
       </c>
       <c r="R4">
-        <v>0.82689999999999997</v>
+        <v>0.33844999999999997</v>
       </c>
       <c r="S4">
-        <v>0.78569999999999995</v>
+        <v>0.30214999999999997</v>
       </c>
       <c r="T4">
-        <v>0.62219999999999998</v>
+        <v>0.81035000000000001</v>
       </c>
       <c r="U4">
-        <v>0.83069999999999999</v>
+        <v>0.62680000000000002</v>
       </c>
       <c r="V4">
-        <v>0.91810000000000003</v>
+        <v>0.63149999999999995</v>
       </c>
       <c r="W4">
-        <v>0.88229999999999997</v>
+        <v>0.57089999999999996</v>
       </c>
       <c r="X4">
-        <v>0.73685</v>
+        <v>0.24565000000000001</v>
       </c>
       <c r="Y4">
-        <v>0.29980000000000001</v>
+        <v>0.76449999999999996</v>
       </c>
       <c r="Z4">
-        <v>0.71809999999999996</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="AA4">
-        <v>0.36454999999999999</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="AB4">
-        <v>0.43085000000000001</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="AC4">
-        <v>0.58004999999999995</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="AD4">
-        <v>0.34870000000000001</v>
+        <v>0.46839999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.60199999999999998</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="AF4">
-        <v>0.86280000000000001</v>
+        <v>0.37945000000000001</v>
       </c>
       <c r="AG4">
-        <v>0.73560000000000003</v>
+        <v>0.45689999999999997</v>
       </c>
       <c r="AH4">
-        <v>0.70374999999999999</v>
+        <v>0.50195000000000001</v>
       </c>
       <c r="AI4">
-        <v>0.66805000000000003</v>
+        <v>0.63605</v>
       </c>
       <c r="AJ4">
-        <v>0.42080000000000001</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="AK4">
-        <v>0.6754</v>
+        <v>0.68374999999999997</v>
       </c>
       <c r="AL4">
-        <v>0.88495000000000001</v>
+        <v>0.49285000000000001</v>
       </c>
       <c r="AM4">
-        <v>0.72335000000000005</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="AN4">
-        <v>0.47284999999999999</v>
+        <v>0.66369999999999996</v>
       </c>
       <c r="AO4">
-        <v>0.63739999999999997</v>
+        <v>0.45169999999999999</v>
       </c>
       <c r="AP4">
-        <v>0.44090000000000001</v>
+        <v>0.61129999999999995</v>
       </c>
       <c r="AQ4">
-        <v>0.63949999999999996</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0.58789999999999998</v>
       </c>
       <c r="AS4">
-        <v>0.85919999999999996</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="AT4">
-        <v>0.57369999999999999</v>
+        <v>0.75960000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.53385000000000005</v>
+        <v>0.78610000000000002</v>
       </c>
       <c r="AV4">
-        <v>0.53425</v>
+        <v>0.77159999999999995</v>
       </c>
       <c r="AW4">
-        <v>0.62514999999999998</v>
+        <v>0.74195</v>
       </c>
       <c r="AX4">
-        <v>0.21235000000000001</v>
+        <v>0.50639999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.82230000000000003</v>
+        <v>0.62234999999999996</v>
       </c>
       <c r="B5">
-        <v>0.50070000000000003</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="C5">
-        <v>0.45219999999999999</v>
+        <v>0.33255000000000001</v>
       </c>
       <c r="D5">
-        <v>0.50990000000000002</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="E5">
-        <v>0.78680000000000005</v>
+        <v>0.70150000000000001</v>
       </c>
       <c r="F5">
-        <v>0.63719999999999999</v>
+        <v>0.73150000000000004</v>
       </c>
       <c r="G5">
-        <v>0.46189999999999998</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="H5">
-        <v>0.2833</v>
+        <v>0.92379999999999995</v>
       </c>
       <c r="I5">
-        <v>0.30675000000000002</v>
+        <v>0.7056</v>
       </c>
       <c r="J5">
-        <v>0.75539999999999996</v>
+        <v>0.57679999999999998</v>
       </c>
       <c r="K5">
-        <v>0.94550000000000001</v>
+        <v>0.91859999999999997</v>
       </c>
       <c r="L5">
-        <v>0.79749999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="M5">
-        <v>0.86719999999999997</v>
+        <v>0.4133</v>
       </c>
       <c r="N5">
-        <v>0.9224</v>
+        <v>0.70689999999999997</v>
       </c>
       <c r="O5">
-        <v>0.67620000000000002</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="P5">
-        <v>0.7591</v>
+        <v>0.75004999999999999</v>
       </c>
       <c r="Q5">
-        <v>0.66654999999999998</v>
+        <v>0.63339999999999996</v>
       </c>
       <c r="R5">
-        <v>0.71499999999999997</v>
+        <v>0.26024999999999998</v>
       </c>
       <c r="S5">
-        <v>0.72189999999999999</v>
+        <v>0.36870000000000003</v>
       </c>
       <c r="T5">
-        <v>0.76329999999999998</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="U5">
-        <v>0.8569</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="V5">
-        <v>0.71399999999999997</v>
+        <v>0.4889</v>
       </c>
       <c r="W5">
-        <v>0.77210000000000001</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="X5">
-        <v>0.87065000000000003</v>
+        <v>0.29735</v>
       </c>
       <c r="Y5">
-        <v>0.46850000000000003</v>
+        <v>0.76354999999999995</v>
       </c>
       <c r="Z5">
-        <v>0.76580000000000004</v>
+        <v>0.6966</v>
       </c>
       <c r="AA5">
-        <v>0.46160000000000001</v>
+        <v>0.66264999999999996</v>
       </c>
       <c r="AB5">
-        <v>0.30059999999999998</v>
+        <v>0.54974999999999996</v>
       </c>
       <c r="AC5">
-        <v>0.52039999999999997</v>
+        <v>0.6804</v>
       </c>
       <c r="AD5">
-        <v>0.29420000000000002</v>
+        <v>0.46410000000000001</v>
       </c>
       <c r="AE5">
-        <v>0.70640000000000003</v>
+        <v>0.45040000000000002</v>
       </c>
       <c r="AF5">
-        <v>0.89</v>
+        <v>0.20960000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.79</v>
+        <v>0.48565000000000003</v>
       </c>
       <c r="AH5">
-        <v>0.59970000000000001</v>
+        <v>0.2397</v>
       </c>
       <c r="AI5">
-        <v>0.75780000000000003</v>
+        <v>0.36354999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.26279999999999998</v>
+        <v>0.63095000000000001</v>
       </c>
       <c r="AK5">
-        <v>0.66069999999999995</v>
+        <v>0.58694999999999997</v>
       </c>
       <c r="AL5">
-        <v>0.72409999999999997</v>
+        <v>0.30545</v>
       </c>
       <c r="AM5">
-        <v>0.58135000000000003</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="AN5">
-        <v>0.48099999999999998</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="AO5">
-        <v>0.63400000000000001</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.59304999999999997</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="AQ5">
-        <v>0.4042</v>
+        <v>0.57269999999999999</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0.65029999999999999</v>
       </c>
       <c r="AS5">
-        <v>0.75319999999999998</v>
+        <v>0.4859</v>
       </c>
       <c r="AT5">
-        <v>0.65680000000000005</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="AU5">
-        <v>0.53469999999999995</v>
+        <v>0.5323</v>
       </c>
       <c r="AV5">
-        <v>0.52869999999999995</v>
+        <v>0.59919999999999995</v>
       </c>
       <c r="AW5">
-        <v>0.54720000000000002</v>
+        <v>0.68620000000000003</v>
       </c>
       <c r="AX5">
-        <v>0.45229999999999998</v>
+        <v>0.67405000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.66979999999999995</v>
+        <v>0.4541</v>
       </c>
       <c r="B6">
-        <v>0.58420000000000005</v>
+        <v>0.47270000000000001</v>
       </c>
       <c r="C6">
-        <v>0.7984</v>
+        <v>0.6583</v>
       </c>
       <c r="D6">
-        <v>0.54279999999999995</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="E6">
-        <v>0.47739999999999999</v>
+        <v>0.7621</v>
       </c>
       <c r="F6">
-        <v>0.8518</v>
+        <v>0.87080000000000002</v>
       </c>
       <c r="G6">
-        <v>0.36009999999999998</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="H6">
-        <v>0.31640000000000001</v>
+        <v>0.9869</v>
       </c>
       <c r="I6">
-        <v>0.58260000000000001</v>
+        <v>0.63129999999999997</v>
       </c>
       <c r="J6">
-        <v>0.72870000000000001</v>
+        <v>0.60509999999999997</v>
       </c>
       <c r="K6">
-        <v>0.9869</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="L6">
-        <v>0.77200000000000002</v>
+        <v>0.43090000000000001</v>
       </c>
       <c r="M6">
-        <v>0.84899999999999998</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="N6">
-        <v>0.75890000000000002</v>
+        <v>0.68710000000000004</v>
       </c>
       <c r="O6">
-        <v>0.8407</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="P6">
-        <v>0.75390000000000001</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="Q6">
-        <v>0.39479999999999998</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="R6">
-        <v>0.57499999999999996</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="S6">
-        <v>0.96189999999999998</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="T6">
-        <v>0.74960000000000004</v>
+        <v>0.7681</v>
       </c>
       <c r="U6">
-        <v>0.88970000000000005</v>
+        <v>0.96140000000000003</v>
       </c>
       <c r="V6">
-        <v>0.50619999999999998</v>
+        <v>0.4073</v>
       </c>
       <c r="W6">
-        <v>0.58304999999999996</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="X6">
-        <v>0.88</v>
+        <v>0.15140000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.28050000000000003</v>
+        <v>0.8</v>
       </c>
       <c r="Z6">
-        <v>0.7349</v>
+        <v>0.8024</v>
       </c>
       <c r="AA6">
-        <v>0.70389999999999997</v>
+        <v>0.71740000000000004</v>
       </c>
       <c r="AB6">
-        <v>0.33050000000000002</v>
+        <v>0.66069999999999995</v>
       </c>
       <c r="AC6">
-        <v>0.34649999999999997</v>
+        <v>0.86580000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.1908</v>
+        <v>0.77880000000000005</v>
       </c>
       <c r="AE6">
-        <v>0.73709999999999998</v>
+        <v>0.18225</v>
       </c>
       <c r="AF6">
-        <v>0.97589999999999999</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="AG6">
-        <v>0.96179999999999999</v>
+        <v>0.4854</v>
       </c>
       <c r="AH6">
-        <v>0.47439999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.93799999999999994</v>
+        <v>0.1671</v>
       </c>
       <c r="AJ6">
-        <v>0.2039</v>
+        <v>0.70189999999999997</v>
       </c>
       <c r="AK6">
-        <v>0.88019999999999998</v>
+        <v>0.63980000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.6643</v>
+        <v>0.56910000000000005</v>
       </c>
       <c r="AM6">
-        <v>0.43509999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AN6">
-        <v>0.5544</v>
+        <v>0.55430000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.65459999999999996</v>
+        <v>0.44805</v>
       </c>
       <c r="AP6">
-        <v>0.51070000000000004</v>
+        <v>0.39319999999999999</v>
       </c>
       <c r="AQ6">
-        <v>0.28034999999999999</v>
+        <v>0.41439999999999999</v>
       </c>
       <c r="AR6">
-        <v>0.95569999999999999</v>
+        <v>0.53664999999999996</v>
       </c>
       <c r="AS6">
-        <v>0.66049999999999998</v>
+        <v>0.3831</v>
       </c>
       <c r="AT6">
-        <v>0.50800000000000001</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="AU6">
-        <v>0.59540000000000004</v>
+        <v>0.66080000000000005</v>
       </c>
       <c r="AV6">
-        <v>0.53149999999999997</v>
+        <v>0.55859999999999999</v>
       </c>
       <c r="AW6">
-        <v>0.73660000000000003</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="AX6">
-        <v>0.50580000000000003</v>
+        <v>0.9153</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.435</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="B7">
-        <v>0.53369999999999995</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="C7">
-        <v>0.65529999999999999</v>
+        <v>0.81940000000000002</v>
       </c>
       <c r="D7">
-        <v>0.48120000000000002</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="E7">
-        <v>0.23169999999999999</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="F7">
-        <v>0.97629999999999995</v>
+        <v>0.87029999999999996</v>
       </c>
       <c r="G7">
-        <v>0.24560000000000001</v>
+        <v>0.66139999999999999</v>
       </c>
       <c r="H7">
-        <v>0.45350000000000001</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="I7">
-        <v>0.40539999999999998</v>
+        <v>0.79430000000000001</v>
       </c>
       <c r="J7">
-        <v>0.74790000000000001</v>
+        <v>0.503</v>
       </c>
       <c r="K7">
-        <v>0.98929999999999996</v>
+        <v>0.71220000000000006</v>
       </c>
       <c r="L7">
-        <v>0.58169999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="M7">
-        <v>0.91359999999999997</v>
+        <v>0.67889999999999995</v>
       </c>
       <c r="N7">
-        <v>0.86470000000000002</v>
+        <v>0.67620000000000002</v>
       </c>
       <c r="O7">
-        <v>0.90029999999999999</v>
+        <v>0.69769999999999999</v>
       </c>
       <c r="P7">
-        <v>0.84370000000000001</v>
+        <v>0.60780000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.70440000000000003</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="R7">
-        <v>0.51729999999999998</v>
+        <v>0.95120000000000005</v>
       </c>
       <c r="S7">
-        <v>0.81200000000000006</v>
+        <v>0.47160000000000002</v>
       </c>
       <c r="T7">
-        <v>0.62060000000000004</v>
+        <v>0.67879999999999996</v>
       </c>
       <c r="U7">
-        <v>0.76390000000000002</v>
+        <v>0.86360000000000003</v>
       </c>
       <c r="V7">
-        <v>0.56659999999999999</v>
+        <v>0.57489999999999997</v>
       </c>
       <c r="W7">
-        <v>0.3619</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="X7">
-        <v>0.76129999999999998</v>
+        <v>0.50770000000000004</v>
       </c>
       <c r="Y7">
-        <v>0.24629999999999999</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="Z7">
-        <v>0.66400000000000003</v>
+        <v>0.8528</v>
       </c>
       <c r="AA7">
-        <v>0.82179999999999997</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="AB7">
-        <v>0.55800000000000005</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="AC7">
-        <v>0.42570000000000002</v>
+        <v>0.62609999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.2195</v>
+        <v>0.70009999999999994</v>
       </c>
       <c r="AE7">
-        <v>0.63819999999999999</v>
+        <v>0.60650000000000004</v>
       </c>
       <c r="AF7">
-        <v>0.86899999999999999</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="AG7">
-        <v>0.9264</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="AH7">
-        <v>0.39090000000000003</v>
+        <v>0.59819999999999995</v>
       </c>
       <c r="AI7">
-        <v>0.7611</v>
+        <v>0.71709999999999996</v>
       </c>
       <c r="AJ7">
-        <v>0.55530000000000002</v>
+        <v>0.78139999999999998</v>
       </c>
       <c r="AK7">
-        <v>0.49380000000000002</v>
+        <v>0.62270000000000003</v>
       </c>
       <c r="AL7">
-        <v>0.59230000000000005</v>
+        <v>0.45789999999999997</v>
       </c>
       <c r="AM7">
-        <v>0.62390000000000001</v>
+        <v>0.2281</v>
       </c>
       <c r="AN7">
-        <v>0.64810000000000001</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="AO7">
-        <v>0.52869999999999995</v>
+        <v>0.60960000000000003</v>
       </c>
       <c r="AP7">
-        <v>0.42659999999999998</v>
+        <v>0.2863</v>
       </c>
       <c r="AQ7">
-        <v>0.33400000000000002</v>
+        <v>0.60550000000000004</v>
       </c>
       <c r="AR7">
-        <v>0.84730000000000005</v>
+        <v>0.17055000000000001</v>
       </c>
       <c r="AS7">
-        <v>0.65210000000000001</v>
+        <v>0.23669999999999999</v>
       </c>
       <c r="AT7">
-        <v>0.69359999999999999</v>
+        <v>0.82440000000000002</v>
       </c>
       <c r="AU7">
-        <v>0.48849999999999999</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="AV7">
-        <v>0.60919999999999996</v>
+        <v>0.74409999999999998</v>
       </c>
       <c r="AW7">
-        <v>0.52780000000000005</v>
+        <v>0.74239999999999995</v>
       </c>
       <c r="AX7">
-        <v>0.6038</v>
+        <v>0.60760000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.26350000000000001</v>
+        <v>0.77510000000000001</v>
       </c>
       <c r="B8">
-        <v>0.46560000000000001</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="C8">
-        <v>0.52710000000000001</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="D8">
-        <v>0.33200000000000002</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="E8">
-        <v>0.2475</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="F8">
-        <v>0.9365</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="G8">
-        <v>0.12709999999999999</v>
+        <v>0.59130000000000005</v>
       </c>
       <c r="H8">
-        <v>0.38390000000000002</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="I8">
-        <v>0.66610000000000003</v>
+        <v>0.89839999999999998</v>
       </c>
       <c r="J8">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.74</v>
+      </c>
+      <c r="L8">
+        <v>0.56889999999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="P8">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="R8">
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.41</v>
+      </c>
+      <c r="T8">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="W8">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="X8">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="Y8">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="Z8">
         <v>0.57679999999999998</v>
       </c>
-      <c r="K8">
-        <v>0.9234</v>
-      </c>
-      <c r="L8">
-        <v>0.43780000000000002</v>
-      </c>
-      <c r="M8">
-        <v>0.8629</v>
-      </c>
-      <c r="N8">
-        <v>0.90139999999999998</v>
-      </c>
-      <c r="O8">
-        <v>0.88039999999999996</v>
-      </c>
-      <c r="P8">
-        <v>0.8679</v>
-      </c>
-      <c r="Q8">
-        <v>0.82540000000000002</v>
-      </c>
-      <c r="R8">
-        <v>0.49909999999999999</v>
-      </c>
-      <c r="S8">
-        <v>0.70820000000000005</v>
-      </c>
-      <c r="T8">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="U8">
-        <v>0.73309999999999997</v>
-      </c>
-      <c r="V8">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="W8">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="X8">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="Y8">
-        <v>0.62990000000000002</v>
-      </c>
-      <c r="Z8">
-        <v>0.4536</v>
-      </c>
       <c r="AA8">
-        <v>0.74819999999999998</v>
+        <v>0.56440000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.70350000000000001</v>
+        <v>0.75670000000000004</v>
       </c>
       <c r="AC8">
-        <v>0.64129999999999998</v>
+        <v>0.57889999999999997</v>
       </c>
       <c r="AD8">
-        <v>0.53910000000000002</v>
+        <v>0.58009999999999995</v>
       </c>
       <c r="AE8">
-        <v>0.67710000000000004</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="AF8">
-        <v>0.75990000000000002</v>
+        <v>0.85940000000000005</v>
       </c>
       <c r="AG8">
-        <v>0.94069999999999998</v>
+        <v>0.27129999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.42630000000000001</v>
+        <v>0.4753</v>
       </c>
       <c r="AI8">
-        <v>0.66379999999999995</v>
+        <v>0.4345</v>
       </c>
       <c r="AJ8">
-        <v>0.57445000000000002</v>
+        <v>0.76359999999999995</v>
       </c>
       <c r="AK8">
-        <v>0.51780000000000004</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="AL8">
-        <v>0.75360000000000005</v>
+        <v>0.31269999999999998</v>
       </c>
       <c r="AM8">
-        <v>0.36580000000000001</v>
+        <v>0.21540000000000001</v>
       </c>
       <c r="AN8">
-        <v>0.46189999999999998</v>
+        <v>0.6905</v>
       </c>
       <c r="AO8">
-        <v>0.63400000000000001</v>
+        <v>0.62670000000000003</v>
       </c>
       <c r="AP8">
-        <v>0.74590000000000001</v>
+        <v>0.27739999999999998</v>
       </c>
       <c r="AQ8">
-        <v>0.4073</v>
+        <v>0.64770000000000005</v>
       </c>
       <c r="AR8">
-        <v>0.80969999999999998</v>
+        <v>0.18509999999999999</v>
       </c>
       <c r="AS8">
-        <v>0.63200000000000001</v>
+        <v>0.50039999999999996</v>
       </c>
       <c r="AT8">
-        <v>0.67359999999999998</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="AU8">
-        <v>0.1673</v>
+        <v>0.66410000000000002</v>
       </c>
       <c r="AV8">
-        <v>0.54649999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AW8">
-        <v>0.37419999999999998</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="AX8">
-        <v>0.40450000000000003</v>
+        <v>0.53979999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.1653</v>
+        <v>0.79039999999999999</v>
       </c>
       <c r="B9">
-        <v>0.34410000000000002</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="C9">
-        <v>0.37909999999999999</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="D9">
-        <v>0.48220000000000002</v>
+        <v>0.62270000000000003</v>
       </c>
       <c r="E9">
-        <v>0.28849999999999998</v>
+        <v>0.82310000000000005</v>
       </c>
       <c r="F9">
-        <v>0.6169</v>
+        <v>0.85289999999999999</v>
       </c>
       <c r="G9">
-        <v>0.126</v>
+        <v>0.64029999999999998</v>
       </c>
       <c r="H9">
-        <v>0.438</v>
+        <v>0.66369999999999996</v>
       </c>
       <c r="I9">
-        <v>0.78659999999999997</v>
+        <v>0.86119999999999997</v>
       </c>
       <c r="J9">
-        <v>0.60229999999999995</v>
+        <v>0.57579999999999998</v>
       </c>
       <c r="K9">
-        <v>0.90790000000000004</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="L9">
-        <v>0.56269999999999998</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="M9">
-        <v>0.70979999999999999</v>
+        <v>0.71840000000000004</v>
       </c>
       <c r="N9">
-        <v>0.98929999999999996</v>
+        <v>0.28410000000000002</v>
       </c>
       <c r="O9">
-        <v>0.75580000000000003</v>
+        <v>0.68279999999999996</v>
       </c>
       <c r="P9">
-        <v>0.78959999999999997</v>
+        <v>0.7127</v>
       </c>
       <c r="Q9">
-        <v>0.9103</v>
+        <v>0.62390000000000001</v>
       </c>
       <c r="R9">
-        <v>0.41270000000000001</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="S9">
-        <v>0.72740000000000005</v>
+        <v>0.4924</v>
       </c>
       <c r="T9">
-        <v>0.79290000000000005</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="U9">
-        <v>0.82630000000000003</v>
+        <v>0.87250000000000005</v>
       </c>
       <c r="V9">
-        <v>0.44009999999999999</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="W9">
-        <v>0.37409999999999999</v>
+        <v>0.81679999999999997</v>
       </c>
       <c r="X9">
-        <v>0.87190000000000001</v>
+        <v>0.41089999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.34799999999999998</v>
+        <v>0.5262</v>
       </c>
       <c r="Z9">
-        <v>0.26400000000000001</v>
+        <v>0.70579999999999998</v>
       </c>
       <c r="AA9">
-        <v>0.57530000000000003</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="AB9">
-        <v>0.35949999999999999</v>
+        <v>0.82030000000000003</v>
       </c>
       <c r="AC9">
-        <v>0.53459999999999996</v>
+        <v>0.8115</v>
       </c>
       <c r="AD9">
-        <v>0.49659999999999999</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.4032</v>
+        <v>0.8901</v>
       </c>
       <c r="AF9">
-        <v>0.7127</v>
+        <v>0.83160000000000001</v>
       </c>
       <c r="AG9">
-        <v>0.97219999999999995</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.14749999999999999</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="AI9">
-        <v>0.64239999999999997</v>
+        <v>0.47539999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.54979999999999996</v>
+        <v>0.66410000000000002</v>
       </c>
       <c r="AK9">
-        <v>0.66869999999999996</v>
+        <v>0.61639999999999995</v>
       </c>
       <c r="AL9">
-        <v>0.88349999999999995</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="AM9">
-        <v>0.46355000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="AN9">
-        <v>0.36530000000000001</v>
+        <v>0.66469999999999996</v>
       </c>
       <c r="AO9">
-        <v>0.50260000000000005</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.55230000000000001</v>
+        <v>0.63070000000000004</v>
       </c>
       <c r="AQ9">
-        <v>0.40339999999999998</v>
+        <v>0.47010000000000002</v>
       </c>
       <c r="AR9">
-        <v>0.89710000000000001</v>
+        <v>0.2999</v>
       </c>
       <c r="AS9">
-        <v>0.58789999999999998</v>
+        <v>0.79059999999999997</v>
       </c>
       <c r="AT9">
-        <v>0.5988</v>
+        <v>0.87560000000000004</v>
       </c>
       <c r="AU9">
-        <v>0.35020000000000001</v>
+        <v>0.75209999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.71040000000000003</v>
+        <v>0.74060000000000004</v>
       </c>
       <c r="AW9">
-        <v>0.3256</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="AX9">
-        <v>0.38529999999999998</v>
+        <v>0.29570000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.2049</v>
+        <v>0.57540000000000002</v>
       </c>
       <c r="B10">
-        <v>0.4748</v>
+        <v>0.45590000000000003</v>
       </c>
       <c r="C10">
-        <v>0.29809999999999998</v>
+        <v>0.86429999999999996</v>
       </c>
       <c r="D10">
-        <v>0.73729999999999996</v>
+        <v>0.52690000000000003</v>
       </c>
       <c r="E10">
-        <v>0.3579</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="F10">
-        <v>0.55369999999999997</v>
+        <v>0.9</v>
       </c>
       <c r="G10">
-        <v>0.1084</v>
+        <v>0.50129999999999997</v>
       </c>
       <c r="H10">
-        <v>0.47510000000000002</v>
+        <v>0.29959999999999998</v>
       </c>
       <c r="I10">
-        <v>0.68520000000000003</v>
+        <v>0.67679999999999996</v>
       </c>
       <c r="J10">
-        <v>0.4965</v>
+        <v>0.57379999999999998</v>
       </c>
       <c r="K10">
-        <v>0.80689999999999995</v>
+        <v>0.56810000000000005</v>
       </c>
       <c r="L10">
-        <v>0.50670000000000004</v>
+        <v>0.57410000000000005</v>
       </c>
       <c r="M10">
-        <v>0.60499999999999998</v>
+        <v>0.6391</v>
       </c>
       <c r="N10">
-        <v>0.94159999999999999</v>
+        <v>0.26069999999999999</v>
       </c>
       <c r="O10">
-        <v>0.69320000000000004</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="P10">
-        <v>0.57689999999999997</v>
+        <v>0.48209999999999997</v>
       </c>
       <c r="Q10">
-        <v>0.85260000000000002</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="R10">
-        <v>0.45050000000000001</v>
+        <v>0.82110000000000005</v>
       </c>
       <c r="S10">
-        <v>0.67490000000000006</v>
+        <v>0.60009999999999997</v>
       </c>
       <c r="T10">
-        <v>0.95250000000000001</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="U10">
-        <v>0.77200000000000002</v>
+        <v>0.75590000000000002</v>
       </c>
       <c r="V10">
-        <v>0.41339999999999999</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="W10">
-        <v>0.52380000000000004</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="X10">
-        <v>0.875</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="Y10">
-        <v>0.28510000000000002</v>
+        <v>0.46779999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.49719999999999998</v>
+        <v>0.76649999999999996</v>
       </c>
       <c r="AA10">
-        <v>0.57530000000000003</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="AB10">
-        <v>0.37009999999999998</v>
+        <v>0.9738</v>
       </c>
       <c r="AC10">
-        <v>0.54559999999999997</v>
+        <v>0.69430000000000003</v>
       </c>
       <c r="AD10">
-        <v>0.51800000000000002</v>
+        <v>0.65610000000000002</v>
       </c>
       <c r="AE10">
-        <v>0.38540000000000002</v>
+        <v>0.78280000000000005</v>
       </c>
       <c r="AF10">
-        <v>0.81020000000000003</v>
+        <v>0.6865</v>
       </c>
       <c r="AG10">
-        <v>0.98570000000000002</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="AH10">
-        <v>6.88E-2</v>
+        <v>0.2311</v>
       </c>
       <c r="AI10">
-        <v>0.53769999999999996</v>
+        <v>0.85489999999999999</v>
       </c>
       <c r="AJ10">
-        <v>0.75009999999999999</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="AK10">
-        <v>0.79210000000000003</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="AL10">
-        <v>0.80179999999999996</v>
+        <v>0.50209999999999999</v>
       </c>
       <c r="AM10">
-        <v>0.58340000000000003</v>
+        <v>0.5212</v>
       </c>
       <c r="AN10">
-        <v>0.49980000000000002</v>
+        <v>0.755</v>
       </c>
       <c r="AO10">
-        <v>0.52649999999999997</v>
+        <v>0.27050000000000002</v>
       </c>
       <c r="AP10">
-        <v>0.59089999999999998</v>
+        <v>0.6895</v>
       </c>
       <c r="AQ10">
-        <v>0.32890000000000003</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="AR10">
-        <v>0.94310000000000005</v>
+        <v>0.17419999999999999</v>
       </c>
       <c r="AS10">
-        <v>0.61890000000000001</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="AT10">
-        <v>0.68510000000000004</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0.30259999999999998</v>
+        <v>0.57840000000000003</v>
       </c>
       <c r="AV10">
-        <v>0.79379999999999995</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="AW10">
-        <v>0.3009</v>
+        <v>0.60819999999999996</v>
       </c>
       <c r="AX10">
-        <v>0.50570000000000004</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.5799999999999996E-2</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="B11">
-        <v>0.32579999999999998</v>
+        <v>0.72709999999999997</v>
       </c>
       <c r="C11">
-        <v>0.2072</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="D11">
-        <v>0.67549999999999999</v>
+        <v>0.48409999999999997</v>
       </c>
       <c r="E11">
-        <v>0.4511</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="F11">
-        <v>0.37559999999999999</v>
+        <v>0.86480000000000001</v>
       </c>
       <c r="G11">
-        <v>0.14599999999999999</v>
+        <v>0.3175</v>
       </c>
       <c r="H11">
-        <v>0.52610000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="I11">
-        <v>0.65359999999999996</v>
+        <v>0.75139999999999996</v>
       </c>
       <c r="J11">
-        <v>0.4642</v>
+        <v>0.7167</v>
       </c>
       <c r="K11">
-        <v>0.71740000000000004</v>
+        <v>0.61419999999999997</v>
       </c>
       <c r="L11">
-        <v>0.55840000000000001</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="M11">
-        <v>0.61099999999999999</v>
+        <v>0.73550000000000004</v>
       </c>
       <c r="N11">
-        <v>0.93510000000000004</v>
+        <v>0.5998</v>
       </c>
       <c r="O11">
-        <v>0.65820000000000001</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="P11">
-        <v>0.83560000000000001</v>
+        <v>0.39650000000000002</v>
       </c>
       <c r="Q11">
-        <v>0.91790000000000005</v>
+        <v>0.76680000000000004</v>
       </c>
       <c r="R11">
-        <v>0.4677</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="S11">
-        <v>0.67190000000000005</v>
+        <v>0.32340000000000002</v>
       </c>
       <c r="T11">
-        <v>0.95340000000000003</v>
+        <v>0.68159999999999998</v>
       </c>
       <c r="U11">
-        <v>0.67830000000000001</v>
+        <v>0.86729999999999996</v>
       </c>
       <c r="V11">
-        <v>0.2843</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="W11">
-        <v>0.61060000000000003</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="X11">
-        <v>0.87509999999999999</v>
+        <v>0.45050000000000001</v>
       </c>
       <c r="Y11">
-        <v>0.50229999999999997</v>
+        <v>0.3463</v>
       </c>
       <c r="Z11">
-        <v>0.73</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="AA11">
-        <v>0.73870000000000002</v>
+        <v>0.25540000000000002</v>
       </c>
       <c r="AB11">
-        <v>0.30209999999999998</v>
+        <v>0.88490000000000002</v>
       </c>
       <c r="AC11">
-        <v>0.50770000000000004</v>
+        <v>0.63770000000000004</v>
       </c>
       <c r="AD11">
-        <v>0.52339999999999998</v>
+        <v>0.59409999999999996</v>
       </c>
       <c r="AE11">
-        <v>0.47260000000000002</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="AF11">
-        <v>0.78390000000000004</v>
+        <v>0.61729999999999996</v>
       </c>
       <c r="AG11">
-        <v>0.98560000000000003</v>
+        <v>0.42709999999999998</v>
       </c>
       <c r="AH11">
-        <v>5.67E-2</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="AI11">
-        <v>0.56159999999999999</v>
+        <v>0.75819999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.7923</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="AK11">
-        <v>0.56040000000000001</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AL11">
-        <v>0.65810000000000002</v>
+        <v>0.4037</v>
       </c>
       <c r="AM11">
-        <v>0.38750000000000001</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="AN11">
-        <v>0.43409999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AO11">
-        <v>0.57210000000000005</v>
+        <v>0.4098</v>
       </c>
       <c r="AP11">
-        <v>0.57399999999999995</v>
+        <v>0.61439999999999995</v>
       </c>
       <c r="AQ11">
-        <v>0.23860000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="AR11">
-        <v>0.89529999999999998</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="AS11">
-        <v>0.4703</v>
+        <v>0.64429999999999998</v>
       </c>
       <c r="AT11">
-        <v>0.90349999999999997</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="AU11">
-        <v>0.44650000000000001</v>
+        <v>0.43540000000000001</v>
       </c>
       <c r="AV11">
-        <v>0.68540000000000001</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="AW11">
-        <v>0.52869999999999995</v>
+        <v>0.70520000000000005</v>
       </c>
       <c r="AX11">
-        <v>0.35089999999999999</v>
+        <v>0.1328</v>
       </c>
     </row>
   </sheetData>
